--- a/iteracion4/product_burndown.xlsx
+++ b/iteracion4/product_burndown.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecamero/GDrive/repositories/pgpi/iteracion4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\US\2017-2018\PGPI\repositorio\pgpi\iteracion4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19560"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteración 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="OLE_LINK15" localSheetId="0">'Iteración 1'!$B$9</definedName>
     <definedName name="OLE_LINK17" localSheetId="0">'Iteración 1'!$B$13</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
@@ -481,71 +481,71 @@
     </xf>
   </cellXfs>
   <cellStyles count="65">
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,9 +561,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -589,59 +589,58 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteración 1'!$C$22:$H$22</c:f>
+              <c:f>'Iteración 1'!$C$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteración 1'!$C$35:$H$35</c:f>
+              <c:f>'Iteración 1'!$C$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96D8-43BC-8DF5-7A85C8E8E765}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -658,59 +657,58 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Iteración 1'!$C$22:$H$22</c:f>
+              <c:f>'Iteración 1'!$C$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteración 1'!$C$36:$H$36</c:f>
+              <c:f>'Iteración 1'!$C$36:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.8</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.6</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-96D8-43BC-8DF5-7A85C8E8E765}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -766,7 +764,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -785,11 +782,11 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0" baseline="0"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="768017984"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
@@ -815,7 +812,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -834,11 +830,11 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0" baseline="0"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="768015120"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -887,7 +883,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FEE5B3-DD4C-428F-B4CF-98ABADA25188}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FEE5B3-DD4C-428F-B4CF-98ABADA25188}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,27 +1200,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="133" zoomScaleNormal="242" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="H14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="48.875" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="4.5" customWidth="1"/>
     <col min="6" max="6" width="5.5" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="7" max="7" width="3.875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="1023" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>5</v>
       </c>
@@ -1235,7 +1231,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="18"/>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
@@ -1244,7 +1240,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
@@ -1257,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1283,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1309,7 +1305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1322,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1335,7 +1331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1348,7 +1344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1361,7 +1357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1374,7 +1370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1400,7 +1396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1413,7 +1409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -1425,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -1437,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -1449,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1458,7 +1454,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="26" t="s">
         <v>1</v>
@@ -1469,7 +1465,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="26" t="s">
         <v>2</v>
@@ -1480,7 +1476,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
@@ -1499,11 +1495,9 @@
       <c r="G22" s="7">
         <v>4</v>
       </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="str">
         <f>B4</f>
         <v>HU-01</v>
@@ -1524,17 +1518,15 @@
       <c r="G23" s="9">
         <v>0</v>
       </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="str">
         <f t="shared" ref="B24:B31" si="1">B5</f>
         <v>HU-02</v>
       </c>
       <c r="C24" s="9">
-        <f t="shared" ref="C24:C31" si="2">H5</f>
+        <f>H5</f>
         <v>1</v>
       </c>
       <c r="D24" s="9">
@@ -1549,17 +1541,15 @@
       <c r="G24" s="9">
         <v>0</v>
       </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">HU-03 </v>
       </c>
       <c r="C25" s="9">
-        <f t="shared" si="2"/>
+        <f>H6</f>
         <v>1</v>
       </c>
       <c r="D25" s="9">
@@ -1574,17 +1564,15 @@
       <c r="G25" s="9">
         <v>0</v>
       </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="str">
         <f t="shared" si="1"/>
         <v>HU-04</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" si="2"/>
+        <f>H7</f>
         <v>8</v>
       </c>
       <c r="D26" s="9">
@@ -1599,17 +1587,15 @@
       <c r="G26" s="9">
         <v>0</v>
       </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="str">
         <f t="shared" si="1"/>
         <v>HU-05</v>
       </c>
       <c r="C27" s="9">
-        <f t="shared" si="2"/>
+        <f>H8</f>
         <v>3</v>
       </c>
       <c r="D27" s="9">
@@ -1624,17 +1610,15 @@
       <c r="G27" s="9">
         <v>0</v>
       </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>HU-06</v>
       </c>
       <c r="C28" s="9">
-        <f t="shared" si="2"/>
+        <f>H9</f>
         <v>5</v>
       </c>
       <c r="D28" s="9">
@@ -1649,17 +1633,15 @@
       <c r="G28" s="9">
         <v>0</v>
       </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>HU-07</v>
       </c>
       <c r="C29" s="9">
-        <f t="shared" si="2"/>
+        <f>H10</f>
         <v>4</v>
       </c>
       <c r="D29" s="9">
@@ -1674,17 +1656,15 @@
       <c r="G29" s="9">
         <v>0</v>
       </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>HU-08</v>
       </c>
       <c r="C30" s="9">
-        <f t="shared" si="2"/>
+        <f>H11</f>
         <v>5</v>
       </c>
       <c r="D30" s="9">
@@ -1699,17 +1679,15 @@
       <c r="G30" s="9">
         <v>0</v>
       </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="str">
         <f t="shared" si="1"/>
         <v>HU-09</v>
       </c>
       <c r="C31" s="9">
-        <f t="shared" si="2"/>
+        <f>H12</f>
         <v>7</v>
       </c>
       <c r="D31" s="10">
@@ -1724,11 +1702,9 @@
       <c r="G31" s="9">
         <v>0</v>
       </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>15</v>
       </c>
@@ -1747,11 +1723,9 @@
       <c r="G32" s="9">
         <v>0</v>
       </c>
-      <c r="H32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>16</v>
       </c>
@@ -1770,11 +1744,9 @@
       <c r="G33" s="9">
         <v>0</v>
       </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>17</v>
       </c>
@@ -1793,11 +1765,9 @@
       <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
         <v>3</v>
       </c>
@@ -1821,12 +1791,9 @@
         <f>SUM(G23:G34)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="15">
-        <f>SUM(H23:H34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>4</v>
       </c>
@@ -1835,27 +1802,24 @@
         <v>56</v>
       </c>
       <c r="D36" s="16">
-        <f>$C36*($H22-D22)/$H22</f>
-        <v>44.8</v>
+        <f>$C36*($G22-D22)/$G22</f>
+        <v>42</v>
       </c>
       <c r="E36" s="16">
-        <f>$C36*($H22-E22)/$H22</f>
-        <v>33.6</v>
+        <f>$C36*($G22-E22)/$G22</f>
+        <v>28</v>
       </c>
       <c r="F36" s="16">
-        <f>$C36*($H22-F22)/$H22</f>
-        <v>22.4</v>
+        <f>$C36*($G22-F22)/$G22</f>
+        <v>14</v>
       </c>
       <c r="G36" s="16">
-        <f>$C36*($H22-G22)/$H22</f>
-        <v>11.2</v>
-      </c>
-      <c r="H36" s="16">
-        <f>$C36*($H22-H22)/$H22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+        <f>$C36*($G22-$G22)/$G22</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="13"/>
@@ -1864,7 +1828,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
